--- a/01_Paradigms/ER-ED/ER_ED/Stimuli/StimuliNegative_4.xlsx
+++ b/01_Paradigms/ER-ED/ER_ED/Stimuli/StimuliNegative_4.xlsx
@@ -42,64 +42,64 @@
     <t>.jpg</t>
   </si>
   <si>
-    <t>Stimuli/208.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/218.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/245.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/254.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/2703.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/2981.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/3160.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/3181.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/3215.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/3301.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/6020.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/6242.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9031.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9184.jpg</t>
-  </si>
-  <si>
     <t>Stimuli/9230.jpg</t>
   </si>
   <si>
-    <t>Stimuli/9253.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9373.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9400.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9424.jpg</t>
-  </si>
-  <si>
-    <t>Stimuli/9800.jpg</t>
+    <t>Stimuli/227.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/252.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/1051.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/2800.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/3061.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/3230.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/6561.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/6838.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9120.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9181.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9185.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9254.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9295.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9332.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9411.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9420.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9421.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9599.jpg</t>
+  </si>
+  <si>
+    <t>Stimuli/9905.jpg</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,62 +434,62 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
